--- a/RO/RépTPs/TP3/Interface_TP3_Exo1.xlsx
+++ b/RO/RépTPs/TP3/Interface_TP3_Exo1.xlsx
@@ -1,47 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\PycharmProjects\TPs\TPs\RO\RépTPs\TP3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2580EC2-FED7-456B-A63F-8775A707966D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Données" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Résultats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Données" sheetId="1" r:id="rId1"/>
+    <sheet name="Résultats" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Nombre d'objets :</t>
+  </si>
+  <si>
+    <t>Capacité :</t>
+  </si>
+  <si>
+    <t>Objet</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Poids</t>
+  </si>
+  <si>
+    <t>Profit :</t>
+  </si>
+  <si>
+    <t>objValue</t>
+  </si>
+  <si>
+    <t>Transporté</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,110 +185,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -554,243 +529,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="16.85546875" customWidth="1" min="1" max="1"/>
-    <col width="5.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="3" bestFit="1" customWidth="1" min="3" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="3" max="21" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nombre d'objets :</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Capacité :</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Objet</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="n">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="5">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="5">
         <v>10</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="5">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="5">
         <v>12</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="5">
         <v>13</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="5">
         <v>14</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="5">
         <v>15</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="Q3" s="5">
         <v>16</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="R3" s="5">
         <v>17</v>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="5">
         <v>18</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="5">
         <v>19</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="U3" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>54</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>82</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>69</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="4">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="4">
         <v>86</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="4">
         <v>34</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="4">
         <v>18</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="4">
         <v>94</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="4">
         <v>99</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="4">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="4">
         <v>99</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="4">
         <v>83</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="4">
         <v>99</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="4">
         <v>64</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="4">
         <v>10</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="4">
         <v>49</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="4">
         <v>40</v>
       </c>
-      <c r="U4" s="10" t="n">
+      <c r="U4" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Poids</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="n">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
         <v>66</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="11">
         <v>80</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="11">
         <v>77</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="11">
         <v>67</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>83</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>58</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="11">
         <v>52</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="11">
         <v>69</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="11">
         <v>97</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="11">
         <v>87</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="11">
         <v>90</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="11">
         <v>54</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="11">
         <v>71</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="11">
         <v>74</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="11">
         <v>78</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="11">
         <v>69</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="11">
         <v>89</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="11">
         <v>79</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="11">
         <v>75</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="12">
         <v>91</v>
       </c>
     </row>
@@ -800,167 +761,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:U3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="13.140625" customWidth="1" min="1" max="1"/>
-    <col width="4" customWidth="1" style="4" min="2" max="2"/>
-    <col width="3.140625" customWidth="1" style="4" min="3" max="21"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="4" customWidth="1"/>
+    <col min="3" max="21" width="3.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
-        <is>
-          <t>objValue</t>
-        </is>
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Objet</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="n">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="5">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="5">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="5">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="5">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="5">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="5">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="5">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="5">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="5">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="5">
         <v>17</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="5">
         <v>18</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="5">
         <v>19</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="U2" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Transporté</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="n">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="n">
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="n">
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="7" t="n">
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7">
         <v>0</v>
       </c>
-      <c r="S3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="8" t="n">
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8">
         <v>0</v>
       </c>
     </row>
